--- a/data/model_performances.xlsx
+++ b/data/model_performances.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>model</t>
   </si>
@@ -37,52 +37,64 @@
     <t>parameters_tuned</t>
   </si>
   <si>
+    <t>LogisticRegressionCV</t>
+  </si>
+  <si>
     <t>GaussianNB</t>
   </si>
   <si>
+    <t>AdaBoostClassifier</t>
+  </si>
+  <si>
     <t>BernoulliNB</t>
   </si>
   <si>
-    <t>AdaBoostClassifier</t>
-  </si>
-  <si>
     <t>RandomForestClassifier</t>
   </si>
   <si>
-    <t>LogisticRegressionCV</t>
+    <t>DecisionTreeClassifier</t>
   </si>
   <si>
     <t>KNeighborsClassifier</t>
   </si>
   <si>
-    <t>DecisionTreeClassifier</t>
+    <t>[{'Cs': 10, 'class_weight': None, 'cv': None, 'dual': False, 'fit_intercept': True, 'intercept_scaling': 1.0, 'l1_ratios': None, 'max_iter': 100, 'multi_class': 'auto', 'n_jobs': None, 'penalty': 'l2', 'random_state': None, 'refit': True, 'scoring': None, 'solver': 'lbfgs', 'tol': 0.0001, 'verbose': 0}]</t>
   </si>
   <si>
     <t>[{'priors': None, 'var_smoothing': 1e-09}]</t>
   </si>
   <si>
+    <t>[{'algorithm': 'SAMME.R', 'base_estimator': None, 'learning_rate': 1.0, 'n_estimators': 50, 'random_state': None}]</t>
+  </si>
+  <si>
     <t>[{'alpha': 1.0, 'binarize': 0.0, 'class_prior': None, 'fit_prior': True}]</t>
   </si>
   <si>
-    <t>[{'algorithm': 'SAMME.R', 'base_estimator': None, 'learning_rate': 1.0, 'n_estimators': 50, 'random_state': None}]</t>
-  </si>
-  <si>
     <t>[{'bootstrap': True, 'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': 'auto', 'max_leaf_nodes': None, 'max_samples': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_estimators': 100, 'n_jobs': None, 'oob_score': False, 'random_state': None, 'verbose': 0, 'warm_start': False}]</t>
   </si>
   <si>
-    <t>[{'Cs': 10, 'class_weight': None, 'cv': None, 'dual': False, 'fit_intercept': True, 'intercept_scaling': 1.0, 'l1_ratios': None, 'max_iter': 100, 'multi_class': 'auto', 'n_jobs': None, 'penalty': 'l2', 'random_state': None, 'refit': True, 'scoring': None, 'solver': 'lbfgs', 'tol': 0.0001, 'verbose': 0}]</t>
+    <t>[{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': None, 'splitter': 'best'}]</t>
   </si>
   <si>
     <t>[{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}]</t>
   </si>
   <si>
-    <t>[{'ccp_alpha': 0.0, 'class_weight': None, 'criterion': 'gini', 'max_depth': None, 'max_features': None, 'max_leaf_nodes': None, 'min_impurity_decrease': 0.0, 'min_impurity_split': None, 'min_samples_leaf': 1, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'presort': 'deprecated', 'random_state': None, 'splitter': 'best'}]</t>
+    <t>[{'solver': 'lbfgs', 'random_state': 42, 'penalty': 'l2', 'max_iter': 1000, 'class_weight': {1: 0.7, 0: 0.3}, 'Cs': 5}]</t>
+  </si>
+  <si>
+    <t>[{}]</t>
   </si>
   <si>
     <t>[{'base_estimator': None}]</t>
   </si>
   <si>
-    <t>[{'random_state': 42, 'n_estimators': 30, 'min_samples_split': 12, 'max_features': 2, 'max_depth': None, 'criterion': 'entropy'}]</t>
+    <t>[{'random_state': 42, 'n_estimators': 30, 'min_samples_split': 10, 'max_features': 'auto', 'max_depth': 6, 'criterion': 'entropy'}]</t>
+  </si>
+  <si>
+    <t>[{'splitter': 'best', 'random_state': 42, 'max_depth': 8, 'criterion': 'entropy'}]</t>
+  </si>
+  <si>
+    <t>[{'weights': 'distance', 'p': 2, 'n_neighbors': 5, 'n_jobs': -1, 'leaf_size': 8}]</t>
   </si>
 </sst>
 </file>
@@ -474,13 +486,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.6369100635314476</v>
+        <v>0.5964986893218485</v>
       </c>
       <c r="C2">
-        <v>0.6376209665254894</v>
+        <v>0.5872109786419525</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
+      </c>
+      <c r="E2">
+        <v>0.6656037497971039</v>
+      </c>
+      <c r="F2">
+        <v>0.6703375289173984</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -488,13 +509,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6304902831358795</v>
+        <v>0.6342975395117832</v>
       </c>
       <c r="C3">
-        <v>0.6356920242629742</v>
+        <v>0.6307525817526625</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
+      </c>
+      <c r="E3">
+        <v>0.6342975395117832</v>
+      </c>
+      <c r="F3">
+        <v>0.6307525817526625</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -502,22 +532,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6769988428730497</v>
+        <v>0.6686531826582162</v>
       </c>
       <c r="C4">
-        <v>0.6341562021595706</v>
+        <v>0.6245346470584523</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4">
-        <v>0.6769988428730497</v>
+        <v>0.6686531826582162</v>
       </c>
       <c r="F4">
-        <v>0.6341562021595706</v>
+        <v>0.6245346470584523</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -525,19 +555,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9984197872452674</v>
+        <v>0.6159456723385717</v>
       </c>
       <c r="C5">
-        <v>0.6255792469688515</v>
+        <v>0.6226726840517988</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5">
-        <v>0.8720605198029114</v>
+        <v>0.6159456723385717</v>
       </c>
       <c r="F5">
-        <v>0.6324784967243816</v>
+        <v>0.6226726840517988</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -548,13 +578,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6028315560847648</v>
+        <v>0.9977106607980373</v>
       </c>
       <c r="C6">
-        <v>0.6009340129445897</v>
+        <v>0.618917363942318</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
+      </c>
+      <c r="E6">
+        <v>0.7041593668057416</v>
+      </c>
+      <c r="F6">
+        <v>0.6179739126162667</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,13 +601,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6931884041899384</v>
+        <v>0.9977050014082647</v>
       </c>
       <c r="C7">
-        <v>0.5556270945027618</v>
+        <v>0.5372626938038531</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
+      </c>
+      <c r="E7">
+        <v>0.7492508790581078</v>
+      </c>
+      <c r="F7">
+        <v>0.5812110880588981</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -576,13 +624,22 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9985022630092185</v>
+        <v>0.7023244009894273</v>
       </c>
       <c r="C8">
-        <v>0.5533956459711042</v>
+        <v>0.5561332235607448</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
+      </c>
+      <c r="E8">
+        <v>0.9977050014082647</v>
+      </c>
+      <c r="F8">
+        <v>0.5637006791503738</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
